--- a/doors-detector/results/house10_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house10_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8596579498358665</v>
+        <v>0.8637171437391651</v>
       </c>
       <c r="F5" t="n">
         <v>720</v>
       </c>
       <c r="G5" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.495454068032189</v>
+        <v>0.4795100103153907</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6407960814369776</v>
+        <v>0.6353088494131617</v>
       </c>
       <c r="F7" t="n">
         <v>93</v>
@@ -664,7 +664,7 @@
         <v>72</v>
       </c>
       <c r="H7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8673440117365647</v>
+        <v>0.870473633366791</v>
       </c>
       <c r="F8" t="n">
         <v>720</v>
       </c>
       <c r="G8" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H8" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5618103544076025</v>
+        <v>0.5551887656188381</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H9" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6308566179357717</v>
+        <v>0.640832493577122</v>
       </c>
       <c r="F10" t="n">
         <v>93</v>
       </c>
       <c r="G10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H10" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8017335154615142</v>
+        <v>0.8231551816004332</v>
       </c>
       <c r="F11" t="n">
         <v>720</v>
       </c>
       <c r="G11" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H11" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6181510319010709</v>
+        <v>0.5731528216363724</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7069109441842465</v>
+        <v>0.6884942087583672</v>
       </c>
       <c r="F13" t="n">
         <v>93</v>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8017134741056706</v>
+        <v>0.8086960355959121</v>
       </c>
       <c r="F14" t="n">
         <v>720</v>
       </c>
       <c r="G14" t="n">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="H14" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6154667129948428</v>
+        <v>0.6536074625095586</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.699584398963733</v>
+        <v>0.6926465761577147</v>
       </c>
       <c r="F16" t="n">
         <v>93</v>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H16" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8040243397475002</v>
+        <v>0.8043770804353978</v>
       </c>
       <c r="F17" t="n">
         <v>720</v>
       </c>
       <c r="G17" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H17" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6540753480477022</v>
+        <v>0.6968382130079883</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H18" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7190623798881808</v>
+        <v>0.7373916187679485</v>
       </c>
       <c r="F19" t="n">
         <v>93</v>
       </c>
       <c r="G19" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H19" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7807000937114863</v>
+        <v>0.7798970860518809</v>
       </c>
       <c r="F20" t="n">
         <v>720</v>
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7275949243271641</v>
+        <v>0.7438803153653921</v>
       </c>
       <c r="F21" t="n">
         <v>83</v>
       </c>
       <c r="G21" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7104983905103386</v>
+        <v>0.6773478660635336</v>
       </c>
       <c r="F22" t="n">
         <v>93</v>
       </c>
       <c r="G22" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8391314525951307</v>
+        <v>0.7642005345347372</v>
       </c>
       <c r="F23" t="n">
         <v>720</v>
       </c>
       <c r="G23" t="n">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="H23" t="n">
-        <v>92</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6710324656898854</v>
+        <v>0.7285999736839555</v>
       </c>
       <c r="F24" t="n">
         <v>83</v>
       </c>
       <c r="G24" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7772822757619208</v>
+        <v>0.7481741845842608</v>
       </c>
       <c r="F25" t="n">
         <v>93</v>
       </c>
       <c r="G25" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
